--- a/input_data/admin_data/CRI/wage_CRI_2008.xlsx
+++ b/input_data/admin_data/CRI/wage_CRI_2008.xlsx
@@ -164,7 +164,7 @@
         <v>0.22056461870670319</v>
       </c>
       <c r="I3">
-        <v>45.769546508789063</v>
+        <v>45.769546508789062</v>
       </c>
     </row>
     <row r="4">
@@ -391,7 +391,7 @@
         <v>6257984.625</v>
       </c>
       <c r="H13">
-        <v>0.17865371704101563</v>
+        <v>0.17865371704101562</v>
       </c>
       <c r="I13">
         <v>2.4086031913757324</v>
